--- a/Case55/module2.xlsx
+++ b/Case55/module2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EIS_Sources\OpenL\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekosolapova/work/bugs/TestCasesEPBDS-8483/Case5/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496EA089-CA07-4BB5-939F-BBF1A0744C55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DD736B-B174-974B-949C-38A5119E7B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="7" r:id="rId1"/>
@@ -816,6 +816,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -838,19 +839,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1245,959 +1240,639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C0DC64-11BA-4F10-8EC3-B7EB2A03B20A}">
-  <dimension ref="A2:O106"/>
+  <dimension ref="B4:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="31" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>700</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>720</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>300</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>350</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>500</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="21" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" t="s">
         <v>23</v>
       </c>
       <c r="F22" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" t="s">
         <v>24</v>
       </c>
       <c r="F24" t="s">
         <v>47</v>
       </c>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" t="s">
         <v>23</v>
       </c>
       <c r="F25" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" t="s">
         <v>23</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="6"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="8" t="s">
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="8" t="s">
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="8" t="s">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="8">
-        <v>0</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8" t="s">
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8">
-        <v>0</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B52" s="3" t="s">
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="8" t="s">
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="8" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="8" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="8" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="8" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="8" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58">
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="8" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="8" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60">
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="8" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8">
+      <c r="D61">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B67" s="3" t="s">
+    <row r="67" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="8" t="s">
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
         <v>2</v>
       </c>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="G69" s="8"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="8" t="s">
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
         <v>2</v>
       </c>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="8" t="s">
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="8" t="s">
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="8" t="s">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" t="s">
         <v>32</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B84" s="3" t="s">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="8" t="s">
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="8" t="s">
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
         <v>23</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="2" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="8" t="s">
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="8" t="s">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="8" t="s">
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
         <v>23</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="8">
-        <v>0</v>
-      </c>
-      <c r="E89" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B94" s="3" t="s">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="8" t="s">
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="2" t="s">
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B96" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="8" t="s">
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="8" t="s">
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="8">
-        <v>0</v>
-      </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="8" t="s">
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
         <v>46</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="8" t="s">
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="8" t="s">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106">
         <v>0</v>
       </c>
     </row>
